--- a/vignettes/s_pneumoniae_netherlands.xlsx
+++ b/vignettes/s_pneumoniae_netherlands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholascroucher/Documents/progression_rate_estimation/progressionEstimation/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1EC85-BF40-CE4C-8590-CBC1ADA9176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF214799-44BD-9546-A706-607F03F51C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29360" yWindow="1380" windowWidth="24440" windowHeight="12540" xr2:uid="{68B6CDF4-21FC-164B-AD92-181213EE6C3E}"/>
   </bookViews>
@@ -123,10 +123,10 @@
     <t>NT</t>
   </si>
   <si>
-    <t>15B/C</t>
-  </si>
-  <si>
     <t>7F</t>
+  </si>
+  <si>
+    <t>15BC</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC935FF1-1BCC-4F45-848F-DA69E54893DF}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F2">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -567,13 +567,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F3">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F4">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -613,13 +613,13 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F5">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F6">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F7">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F8">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -705,13 +705,13 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F9">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -728,13 +728,13 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F10">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -751,13 +751,13 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F11">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F12">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F13">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -820,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F14">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F15">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F16">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F17">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -912,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F18">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -935,13 +935,13 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F19">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F20">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F21">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1004,13 +1004,13 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F22">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1027,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F23">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="E24">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F24">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1073,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F25">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1096,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F26">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1119,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F27">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1142,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F28">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1165,13 +1165,13 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F29">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1188,13 +1188,13 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F30">
-        <v>5000000</v>
+        <v>250924</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
